--- a/AutomatismiSoglieSupercopGIT.xlsx
+++ b/AutomatismiSoglieSupercopGIT.xlsx
@@ -8,21 +8,22 @@
   </bookViews>
   <sheets>
     <sheet name="tabella 01082017" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="01072021" sheetId="18" r:id="rId2"/>
-    <sheet name="03082020" sheetId="17" r:id="rId3"/>
-    <sheet name="01072020" sheetId="16" r:id="rId4"/>
-    <sheet name="28062019" sheetId="14" r:id="rId5"/>
-    <sheet name="18062019" sheetId="15" r:id="rId6"/>
-    <sheet name="03122018" sheetId="13" r:id="rId7"/>
-    <sheet name="03102017" sheetId="3" state="hidden" r:id="rId8"/>
-    <sheet name="10122017" sheetId="5" state="hidden" r:id="rId9"/>
-    <sheet name="24042018" sheetId="6" state="hidden" r:id="rId10"/>
-    <sheet name="24092018" sheetId="9" state="hidden" r:id="rId11"/>
-    <sheet name="24092018_" sheetId="10" state="hidden" r:id="rId12"/>
-    <sheet name="06112018" sheetId="12" r:id="rId13"/>
-    <sheet name="26092018" sheetId="11" r:id="rId14"/>
-    <sheet name="23092018" sheetId="7" r:id="rId15"/>
-    <sheet name="31082017" sheetId="1" r:id="rId16"/>
+    <sheet name="02022022" sheetId="19" r:id="rId2"/>
+    <sheet name="01072021" sheetId="18" r:id="rId3"/>
+    <sheet name="03082020" sheetId="17" r:id="rId4"/>
+    <sheet name="01072020" sheetId="16" r:id="rId5"/>
+    <sheet name="28062019" sheetId="14" r:id="rId6"/>
+    <sheet name="18062019" sheetId="15" r:id="rId7"/>
+    <sheet name="03122018" sheetId="13" r:id="rId8"/>
+    <sheet name="03102017" sheetId="3" state="hidden" r:id="rId9"/>
+    <sheet name="10122017" sheetId="5" state="hidden" r:id="rId10"/>
+    <sheet name="24042018" sheetId="6" state="hidden" r:id="rId11"/>
+    <sheet name="24092018" sheetId="9" state="hidden" r:id="rId12"/>
+    <sheet name="24092018_" sheetId="10" state="hidden" r:id="rId13"/>
+    <sheet name="06112018" sheetId="12" r:id="rId14"/>
+    <sheet name="26092018" sheetId="11" r:id="rId15"/>
+    <sheet name="23092018" sheetId="7" r:id="rId16"/>
+    <sheet name="31082017" sheetId="1" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc479263774" localSheetId="0">'tabella 01082017'!$A$1</definedName>
@@ -31,8 +32,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autore</author>
+  </authors>
+  <commentList>
+    <comment ref="H14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>STT:03/1/22</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+cambio Tomaselli da 3,2 a 3,5 Iset grande e vecchio
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="315">
   <si>
     <t>POZ001</t>
   </si>
@@ -983,13 +1019,25 @@
   </si>
   <si>
     <t>in funzione dal 22/03/2021</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>Comanda serbatoio (livello + orologio)</t>
+  </si>
+  <si>
+    <t>Carico con pompa Petrarca/Mazzini</t>
+  </si>
+  <si>
+    <t>cfg. al  02/02/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1093,6 +1141,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1817,7 +1878,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2248,6 +2309,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2257,15 +2333,60 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="46" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="46" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="46" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="46" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="6" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2275,51 +2396,6 @@
     <xf numFmtId="20" fontId="6" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2374,6 +2450,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2383,12 +2465,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2412,6 +2488,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2579,8 +2661,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2624,8 +2706,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2703,6 +2785,51 @@
 </file>
 
 <file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="104775" y="28575"/>
+          <a:ext cx="361950" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2984,8 +3111,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3415,32 +3542,32 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="168" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="171"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="170"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="172"/>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="174"/>
+      <c r="A3" s="171"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="173"/>
     </row>
     <row r="4" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="165" t="s">
         <v>95</v>
       </c>
       <c r="C4" s="45" t="s">
@@ -3452,10 +3579,10 @@
       <c r="E4" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="175" t="s">
+      <c r="F4" s="174" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="176"/>
+      <c r="G4" s="175"/>
       <c r="H4" s="45" t="s">
         <v>103</v>
       </c>
@@ -3464,7 +3591,7 @@
       <c r="A5" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="162"/>
+      <c r="B5" s="167"/>
       <c r="C5" s="46" t="s">
         <v>97</v>
       </c>
@@ -3474,8 +3601,8 @@
       <c r="E5" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="F5" s="177"/>
-      <c r="G5" s="178"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="177"/>
       <c r="H5" s="46" t="s">
         <v>104</v>
       </c>
@@ -3533,76 +3660,76 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="160" t="s">
+      <c r="A8" s="165" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="160" t="s">
+      <c r="B8" s="165" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="163">
+      <c r="C8" s="178">
         <v>11.138888888888888</v>
       </c>
       <c r="D8" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="179" t="s">
+      <c r="E8" s="180" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="182">
+      <c r="F8" s="183">
         <v>0.25208333333333333</v>
       </c>
-      <c r="G8" s="182">
+      <c r="G8" s="183">
         <v>0.29375000000000001</v>
       </c>
-      <c r="H8" s="179" t="s">
+      <c r="H8" s="180" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="162"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="165"/>
+      <c r="A9" s="167"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="179"/>
       <c r="D9" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="180"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="180"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="181"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="160" t="s">
+      <c r="A10" s="165" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="160" t="s">
+      <c r="B10" s="165" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="160" t="s">
+      <c r="C10" s="165" t="s">
         <v>119</v>
       </c>
       <c r="D10" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="E10" s="180"/>
-      <c r="F10" s="182">
+      <c r="E10" s="181"/>
+      <c r="F10" s="183">
         <v>0.25208333333333333</v>
       </c>
-      <c r="G10" s="182">
+      <c r="G10" s="183">
         <v>0.29375000000000001</v>
       </c>
-      <c r="H10" s="180"/>
+      <c r="H10" s="181"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="162"/>
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
+      <c r="A11" s="167"/>
+      <c r="B11" s="167"/>
+      <c r="C11" s="167"/>
       <c r="D11" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="181"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="181"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="182"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
@@ -3766,7 +3893,7 @@
       <c r="C18" s="47">
         <v>10.33611111111111</v>
       </c>
-      <c r="D18" s="160" t="s">
+      <c r="D18" s="165" t="s">
         <v>142</v>
       </c>
       <c r="E18" s="51"/>
@@ -3788,7 +3915,7 @@
       <c r="C19" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="161"/>
+      <c r="D19" s="166"/>
       <c r="E19" s="50"/>
       <c r="F19" s="67">
         <v>0.3347222222222222</v>
@@ -3808,7 +3935,7 @@
       <c r="C20" s="47">
         <v>10.298611111111111</v>
       </c>
-      <c r="D20" s="162"/>
+      <c r="D20" s="167"/>
       <c r="E20" s="48" t="s">
         <v>146</v>
       </c>
@@ -4038,54 +4165,54 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="160" t="s">
+      <c r="A33" s="165" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="160" t="s">
+      <c r="B33" s="165" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="163">
+      <c r="C33" s="178">
         <v>10.369444444444445</v>
       </c>
       <c r="D33" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="E33" s="160" t="s">
+      <c r="E33" s="165" t="s">
         <v>139</v>
       </c>
-      <c r="F33" s="166">
+      <c r="F33" s="186">
         <v>0.33402777777777781</v>
       </c>
-      <c r="G33" s="166">
+      <c r="G33" s="186">
         <v>0.3756944444444445</v>
       </c>
-      <c r="H33" s="160" t="s">
+      <c r="H33" s="165" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="161"/>
-      <c r="B34" s="161"/>
-      <c r="C34" s="164"/>
+      <c r="A34" s="166"/>
+      <c r="B34" s="166"/>
+      <c r="C34" s="185"/>
       <c r="D34" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="E34" s="161"/>
-      <c r="F34" s="167"/>
-      <c r="G34" s="167"/>
-      <c r="H34" s="161"/>
+      <c r="E34" s="166"/>
+      <c r="F34" s="187"/>
+      <c r="G34" s="187"/>
+      <c r="H34" s="166"/>
     </row>
     <row r="35" spans="1:8" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="162"/>
-      <c r="B35" s="162"/>
-      <c r="C35" s="165"/>
+      <c r="A35" s="167"/>
+      <c r="B35" s="167"/>
+      <c r="C35" s="179"/>
       <c r="D35" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="E35" s="162"/>
-      <c r="F35" s="168"/>
-      <c r="G35" s="168"/>
-      <c r="H35" s="162"/>
+      <c r="E35" s="167"/>
+      <c r="F35" s="188"/>
+      <c r="G35" s="188"/>
+      <c r="H35" s="167"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="60" t="s">
@@ -4232,6 +4359,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="A2:H3"/>
     <mergeCell ref="B4:B5"/>
@@ -4248,13 +4382,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="_top" display="_top"/>
@@ -4265,6 +4392,514 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="38.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="200">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="200"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="200"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="74"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="214" t="s">
+        <v>213</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="215"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="H22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="214" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="H23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="201"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="217" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="199"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="216" t="s">
+        <v>198</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="215"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="E27:E28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
@@ -4442,7 +5077,7 @@
       <c r="B11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="195">
+      <c r="C11" s="200">
         <v>8.1999999999999993</v>
       </c>
       <c r="D11" s="17"/>
@@ -4457,7 +5092,7 @@
       <c r="B12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="195"/>
+      <c r="C12" s="200"/>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
       <c r="F12" s="24"/>
@@ -4470,7 +5105,7 @@
       <c r="B13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="195"/>
+      <c r="C13" s="200"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="18"/>
@@ -4596,7 +5231,7 @@
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="209" t="s">
+      <c r="E21" s="214" t="s">
         <v>213</v>
       </c>
       <c r="F21" s="12"/>
@@ -4613,7 +5248,7 @@
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="210"/>
+      <c r="E22" s="215"/>
       <c r="F22" s="18"/>
       <c r="G22" s="19" t="s">
         <v>202</v>
@@ -4631,7 +5266,7 @@
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="209" t="s">
+      <c r="E23" s="214" t="s">
         <v>75</v>
       </c>
       <c r="F23" s="12"/>
@@ -4651,7 +5286,7 @@
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="196"/>
+      <c r="E24" s="201"/>
       <c r="F24" s="18"/>
       <c r="G24" s="19" t="s">
         <v>202</v>
@@ -4670,7 +5305,7 @@
         <v>71</v>
       </c>
       <c r="F25" s="12"/>
-      <c r="G25" s="212" t="s">
+      <c r="G25" s="217" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4687,7 +5322,7 @@
         <v>86</v>
       </c>
       <c r="F26" s="29"/>
-      <c r="G26" s="194"/>
+      <c r="G26" s="199"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
@@ -4696,11 +5331,11 @@
       <c r="B27" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="213" t="s">
+      <c r="C27" s="218" t="s">
         <v>221</v>
       </c>
-      <c r="D27" s="209"/>
-      <c r="E27" s="211" t="s">
+      <c r="D27" s="214"/>
+      <c r="E27" s="216" t="s">
         <v>198</v>
       </c>
       <c r="F27" s="12"/>
@@ -4715,9 +5350,9 @@
       <c r="B28" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="214"/>
-      <c r="D28" s="210"/>
-      <c r="E28" s="210"/>
+      <c r="C28" s="219"/>
+      <c r="D28" s="215"/>
+      <c r="E28" s="215"/>
       <c r="F28" s="18"/>
       <c r="G28" s="19" t="s">
         <v>204</v>
@@ -4781,7 +5416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
@@ -4929,7 +5564,7 @@
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="195">
+      <c r="C9" s="200">
         <v>8.1999999999999993</v>
       </c>
       <c r="D9" s="17"/>
@@ -4944,7 +5579,7 @@
       <c r="B10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="195"/>
+      <c r="C10" s="200"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="24"/>
@@ -4957,7 +5592,7 @@
       <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="195"/>
+      <c r="C11" s="200"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="18"/>
@@ -5085,7 +5720,7 @@
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="209" t="s">
+      <c r="E19" s="214" t="s">
         <v>213</v>
       </c>
       <c r="F19" s="12"/>
@@ -5102,7 +5737,7 @@
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="17"/>
-      <c r="E20" s="210"/>
+      <c r="E20" s="215"/>
       <c r="F20" s="18"/>
       <c r="G20" s="19" t="s">
         <v>202</v>
@@ -5120,7 +5755,7 @@
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="209" t="s">
+      <c r="E21" s="214" t="s">
         <v>75</v>
       </c>
       <c r="F21" s="12"/>
@@ -5140,7 +5775,7 @@
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="196"/>
+      <c r="E22" s="201"/>
       <c r="F22" s="18"/>
       <c r="G22" s="19" t="s">
         <v>202</v>
@@ -5159,7 +5794,7 @@
         <v>229</v>
       </c>
       <c r="F23" s="12"/>
-      <c r="G23" s="212" t="s">
+      <c r="G23" s="217" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5176,7 +5811,7 @@
         <v>230</v>
       </c>
       <c r="F24" s="29"/>
-      <c r="G24" s="194"/>
+      <c r="G24" s="199"/>
     </row>
     <row r="25" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -5185,11 +5820,11 @@
       <c r="B25" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="213" t="s">
+      <c r="C25" s="218" t="s">
         <v>221</v>
       </c>
-      <c r="D25" s="209"/>
-      <c r="E25" s="211" t="s">
+      <c r="D25" s="214"/>
+      <c r="E25" s="216" t="s">
         <v>198</v>
       </c>
       <c r="F25" s="12"/>
@@ -5204,9 +5839,9 @@
       <c r="B26" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="214"/>
-      <c r="D26" s="210"/>
-      <c r="E26" s="210"/>
+      <c r="C26" s="219"/>
+      <c r="D26" s="215"/>
+      <c r="E26" s="215"/>
       <c r="F26" s="18"/>
       <c r="G26" s="19" t="s">
         <v>204</v>
@@ -5296,7 +5931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
@@ -5469,7 +6104,7 @@
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="195">
+      <c r="C9" s="200">
         <v>8.1999999999999993</v>
       </c>
       <c r="D9" s="80"/>
@@ -5486,7 +6121,7 @@
       <c r="B10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="195"/>
+      <c r="C10" s="200"/>
       <c r="D10" s="80"/>
       <c r="E10" s="80"/>
       <c r="F10" s="80"/>
@@ -5501,7 +6136,7 @@
       <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="195"/>
+      <c r="C11" s="200"/>
       <c r="D11" s="80"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -5652,7 +6287,7 @@
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="209" t="s">
+      <c r="H19" s="214" t="s">
         <v>213</v>
       </c>
       <c r="I19" s="13" t="s">
@@ -5671,7 +6306,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="210"/>
+      <c r="H20" s="215"/>
       <c r="I20" s="19" t="s">
         <v>202</v>
       </c>
@@ -5737,7 +6372,7 @@
       <c r="H23" s="79" t="s">
         <v>253</v>
       </c>
-      <c r="I23" s="212" t="s">
+      <c r="I23" s="217" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5758,7 +6393,7 @@
       <c r="H24" s="81" t="s">
         <v>252</v>
       </c>
-      <c r="I24" s="194"/>
+      <c r="I24" s="199"/>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -5889,7 +6524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
@@ -6058,7 +6693,7 @@
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="195">
+      <c r="C9" s="200">
         <v>8.1999999999999993</v>
       </c>
       <c r="D9" s="100"/>
@@ -6075,7 +6710,7 @@
       <c r="B10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="195"/>
+      <c r="C10" s="200"/>
       <c r="D10" s="100"/>
       <c r="E10" s="100"/>
       <c r="F10" s="100"/>
@@ -6090,7 +6725,7 @@
       <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="195"/>
+      <c r="C11" s="200"/>
       <c r="D11" s="100"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -6245,7 +6880,7 @@
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="209" t="s">
+      <c r="H19" s="214" t="s">
         <v>213</v>
       </c>
       <c r="I19" s="13" t="s">
@@ -6264,7 +6899,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="210"/>
+      <c r="H20" s="215"/>
       <c r="I20" s="19" t="s">
         <v>202</v>
       </c>
@@ -6324,7 +6959,7 @@
       <c r="H23" s="99" t="s">
         <v>253</v>
       </c>
-      <c r="I23" s="212" t="s">
+      <c r="I23" s="217" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6345,7 +6980,7 @@
       <c r="H24" s="101" t="s">
         <v>252</v>
       </c>
-      <c r="I24" s="194"/>
+      <c r="I24" s="199"/>
     </row>
     <row r="25" spans="1:9" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -6467,7 +7102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
@@ -6640,7 +7275,7 @@
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="195">
+      <c r="C9" s="200">
         <v>8.1999999999999993</v>
       </c>
       <c r="D9" s="84"/>
@@ -6657,7 +7292,7 @@
       <c r="B10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="195"/>
+      <c r="C10" s="200"/>
       <c r="D10" s="84"/>
       <c r="E10" s="84"/>
       <c r="F10" s="84"/>
@@ -6672,7 +7307,7 @@
       <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="195"/>
+      <c r="C11" s="200"/>
       <c r="D11" s="84"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -6823,7 +7458,7 @@
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="209" t="s">
+      <c r="H19" s="214" t="s">
         <v>213</v>
       </c>
       <c r="I19" s="13" t="s">
@@ -6842,7 +7477,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="210"/>
+      <c r="H20" s="215"/>
       <c r="I20" s="19" t="s">
         <v>202</v>
       </c>
@@ -6908,7 +7543,7 @@
       <c r="H23" s="83" t="s">
         <v>253</v>
       </c>
-      <c r="I23" s="212" t="s">
+      <c r="I23" s="217" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6929,7 +7564,7 @@
       <c r="H24" s="85" t="s">
         <v>252</v>
       </c>
-      <c r="I24" s="194"/>
+      <c r="I24" s="199"/>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -7060,7 +7695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
@@ -7208,7 +7843,7 @@
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="195">
+      <c r="C9" s="200">
         <v>8.1999999999999993</v>
       </c>
       <c r="D9" s="17"/>
@@ -7223,7 +7858,7 @@
       <c r="B10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="195"/>
+      <c r="C10" s="200"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="24"/>
@@ -7236,7 +7871,7 @@
       <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="195"/>
+      <c r="C11" s="200"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="18"/>
@@ -7364,7 +7999,7 @@
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="209" t="s">
+      <c r="E19" s="214" t="s">
         <v>213</v>
       </c>
       <c r="F19" s="12"/>
@@ -7381,7 +8016,7 @@
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="17"/>
-      <c r="E20" s="210"/>
+      <c r="E20" s="215"/>
       <c r="F20" s="18"/>
       <c r="G20" s="19" t="s">
         <v>202</v>
@@ -7396,7 +8031,7 @@
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="209" t="s">
+      <c r="E21" s="214" t="s">
         <v>75</v>
       </c>
       <c r="F21" s="12"/>
@@ -7413,7 +8048,7 @@
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="196"/>
+      <c r="E22" s="201"/>
       <c r="F22" s="18"/>
       <c r="G22" s="19" t="s">
         <v>202</v>
@@ -7435,7 +8070,7 @@
         <v>229</v>
       </c>
       <c r="F23" s="12"/>
-      <c r="G23" s="212" t="s">
+      <c r="G23" s="217" t="s">
         <v>231</v>
       </c>
       <c r="H23" t="s">
@@ -7455,7 +8090,7 @@
         <v>230</v>
       </c>
       <c r="F24" s="29"/>
-      <c r="G24" s="194"/>
+      <c r="G24" s="199"/>
     </row>
     <row r="25" spans="1:8" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -7464,11 +8099,11 @@
       <c r="B25" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="213" t="s">
+      <c r="C25" s="218" t="s">
         <v>221</v>
       </c>
-      <c r="D25" s="209"/>
-      <c r="E25" s="211" t="s">
+      <c r="D25" s="214"/>
+      <c r="E25" s="216" t="s">
         <v>198</v>
       </c>
       <c r="F25" s="12"/>
@@ -7483,9 +8118,9 @@
       <c r="B26" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="214"/>
-      <c r="D26" s="210"/>
-      <c r="E26" s="210"/>
+      <c r="C26" s="219"/>
+      <c r="D26" s="215"/>
+      <c r="E26" s="215"/>
       <c r="F26" s="18"/>
       <c r="G26" s="19" t="s">
         <v>204</v>
@@ -7575,7 +8210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Foglio2"/>
   <dimension ref="A1:G31"/>
@@ -7902,7 +8537,7 @@
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="209" t="s">
+      <c r="E21" s="214" t="s">
         <v>77</v>
       </c>
       <c r="F21" s="12"/>
@@ -7919,7 +8554,7 @@
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="210"/>
+      <c r="E22" s="215"/>
       <c r="F22" s="18"/>
       <c r="G22" s="19" t="s">
         <v>76</v>
@@ -7934,7 +8569,7 @@
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="209" t="s">
+      <c r="E23" s="214" t="s">
         <v>75</v>
       </c>
       <c r="F23" s="12"/>
@@ -7951,7 +8586,7 @@
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="196"/>
+      <c r="E24" s="201"/>
       <c r="F24" s="18"/>
       <c r="G24" s="19" t="s">
         <v>76</v>
@@ -7966,7 +8601,7 @@
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="209" t="s">
+      <c r="E25" s="214" t="s">
         <v>71</v>
       </c>
       <c r="F25" s="12"/>
@@ -7983,7 +8618,7 @@
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="28"/>
-      <c r="E26" s="210"/>
+      <c r="E26" s="215"/>
       <c r="F26" s="29"/>
       <c r="G26" s="30" t="s">
         <v>82</v>
@@ -7998,7 +8633,7 @@
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="209" t="s">
+      <c r="E27" s="214" t="s">
         <v>72</v>
       </c>
       <c r="F27" s="12"/>
@@ -8015,7 +8650,7 @@
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
-      <c r="E28" s="210"/>
+      <c r="E28" s="215"/>
       <c r="F28" s="18"/>
       <c r="G28" s="19" t="s">
         <v>73</v>
@@ -8077,14 +8712,627 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="38.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7.42578125" style="161" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="161" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.42578125" style="161" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="107" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="107" t="s">
+        <v>258</v>
+      </c>
+      <c r="E2" s="107" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="107" t="s">
+        <v>260</v>
+      </c>
+      <c r="G2" s="107" t="s">
+        <v>261</v>
+      </c>
+      <c r="H2" s="107" t="s">
+        <v>262</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="125" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="125" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="125" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="126" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="124" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="191">
+        <v>8.6</v>
+      </c>
+      <c r="D9" s="192"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="203"/>
+      <c r="I9" s="193" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="125" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="191"/>
+      <c r="D10" s="192"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="201"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="194"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="125" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="191"/>
+      <c r="D11" s="192"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="194"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="125" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="195" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="197" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="160" t="s">
+        <v>288</v>
+      </c>
+      <c r="F14" s="160"/>
+      <c r="G14" s="160">
+        <v>2.5</v>
+      </c>
+      <c r="H14" s="160">
+        <v>3.5</v>
+      </c>
+      <c r="I14" s="193" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="196"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="160" t="s">
+        <v>289</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="164">
+        <v>2.5</v>
+      </c>
+      <c r="H15" s="164">
+        <v>3.5</v>
+      </c>
+      <c r="I15" s="199"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10">
+        <v>7.3</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="125" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="200"/>
+      <c r="D17" s="201"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="201"/>
+      <c r="G17" s="201"/>
+      <c r="H17" s="202"/>
+      <c r="I17" s="159" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="125" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="200"/>
+      <c r="D18" s="201"/>
+      <c r="E18" s="201"/>
+      <c r="F18" s="201"/>
+      <c r="G18" s="201"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="159" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="126" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="19" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="124" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="H20" s="163">
+        <v>3</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="H22" s="163" t="s">
+        <v>254</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="126" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="220">
+        <v>0.25</v>
+      </c>
+      <c r="D23" s="90">
+        <v>0.3125</v>
+      </c>
+      <c r="E23" s="90">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F23" s="90">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G23" s="90">
+        <v>0.75</v>
+      </c>
+      <c r="H23" s="221">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="124" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="189" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="127" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="164"/>
+      <c r="I25" s="190"/>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="124" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="86"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163" t="s">
+        <v>250</v>
+      </c>
+      <c r="H26" s="163" t="s">
+        <v>249</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="126" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="88"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="164"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="128" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34">
+        <v>4</v>
+      </c>
+      <c r="H28" s="34">
+        <v>4.2</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="129" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="121" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="113"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="111" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="125" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="122" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="115"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="162"/>
+      <c r="I30" s="110" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="123" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="118"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="112" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:H18"/>
+    <mergeCell ref="C9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8248,15 +9496,15 @@
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="186">
+      <c r="C9" s="191">
         <v>8.6</v>
       </c>
-      <c r="D9" s="187"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="198"/>
-      <c r="I9" s="188" t="s">
+      <c r="D9" s="192"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="203"/>
+      <c r="I9" s="193" t="s">
         <v>308</v>
       </c>
     </row>
@@ -8267,13 +9515,13 @@
       <c r="B10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="186"/>
-      <c r="D10" s="187"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="189"/>
+      <c r="C10" s="191"/>
+      <c r="D10" s="192"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="201"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="194"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="125" t="s">
@@ -8282,13 +9530,13 @@
       <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="186"/>
-      <c r="D11" s="187"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="197"/>
-      <c r="I11" s="189"/>
+      <c r="C11" s="191"/>
+      <c r="D11" s="192"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="194"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="125" t="s">
@@ -8325,10 +9573,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="190" t="s">
+      <c r="A14" s="195" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="197" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="16"/>
@@ -8343,13 +9591,13 @@
       <c r="H14" s="154">
         <v>3.2</v>
       </c>
-      <c r="I14" s="188" t="s">
+      <c r="I14" s="193" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="191"/>
-      <c r="B15" s="193"/>
+      <c r="A15" s="196"/>
+      <c r="B15" s="198"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
       <c r="E15" s="154" t="s">
@@ -8362,7 +9610,7 @@
       <c r="H15" s="158">
         <v>3.2</v>
       </c>
-      <c r="I15" s="194"/>
+      <c r="I15" s="199"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="124" t="s">
@@ -8390,12 +9638,12 @@
       <c r="B17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="195"/>
-      <c r="D17" s="196"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="196"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="197"/>
+      <c r="C17" s="200"/>
+      <c r="D17" s="201"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="201"/>
+      <c r="G17" s="201"/>
+      <c r="H17" s="202"/>
       <c r="I17" s="159" t="s">
         <v>303</v>
       </c>
@@ -8407,12 +9655,12 @@
       <c r="B18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="195"/>
-      <c r="D18" s="196"/>
-      <c r="E18" s="196"/>
-      <c r="F18" s="196"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="197"/>
+      <c r="C18" s="200"/>
+      <c r="D18" s="201"/>
+      <c r="E18" s="201"/>
+      <c r="F18" s="201"/>
+      <c r="G18" s="201"/>
+      <c r="H18" s="202"/>
       <c r="I18" s="159" t="s">
         <v>303</v>
       </c>
@@ -8523,7 +9771,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="157"/>
-      <c r="I24" s="184" t="s">
+      <c r="I24" s="189" t="s">
         <v>277</v>
       </c>
     </row>
@@ -8540,7 +9788,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="158"/>
-      <c r="I25" s="185"/>
+      <c r="I25" s="190"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="124" t="s">
@@ -8676,7 +9924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -8852,17 +10100,17 @@
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="186">
+      <c r="C9" s="191">
         <v>7.3</v>
       </c>
-      <c r="D9" s="187">
+      <c r="D9" s="192">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="198"/>
-      <c r="I9" s="188" t="s">
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="203"/>
+      <c r="I9" s="193" t="s">
         <v>302</v>
       </c>
     </row>
@@ -8873,13 +10121,13 @@
       <c r="B10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="195"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="189"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="201"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="194"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="125" t="s">
@@ -8888,13 +10136,13 @@
       <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="195"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="197"/>
-      <c r="I11" s="189"/>
+      <c r="C11" s="200"/>
+      <c r="D11" s="201"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="194"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="125" t="s">
@@ -8939,10 +10187,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="190" t="s">
+      <c r="A14" s="195" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="197" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="16"/>
@@ -8957,13 +10205,13 @@
       <c r="H14" s="149">
         <v>3.2</v>
       </c>
-      <c r="I14" s="188" t="s">
+      <c r="I14" s="193" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="191"/>
-      <c r="B15" s="193"/>
+      <c r="A15" s="196"/>
+      <c r="B15" s="198"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
       <c r="E15" s="149" t="s">
@@ -8976,7 +10224,7 @@
       <c r="H15" s="153">
         <v>3.2</v>
       </c>
-      <c r="I15" s="194"/>
+      <c r="I15" s="199"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="124" t="s">
@@ -9004,16 +10252,16 @@
       <c r="B17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="195" t="s">
+      <c r="C17" s="200" t="s">
         <v>304</v>
       </c>
-      <c r="D17" s="196" t="s">
+      <c r="D17" s="201" t="s">
         <v>304</v>
       </c>
-      <c r="E17" s="187"/>
-      <c r="F17" s="196"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="197"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="201"/>
+      <c r="G17" s="201"/>
+      <c r="H17" s="202"/>
       <c r="I17" s="159" t="s">
         <v>306</v>
       </c>
@@ -9025,12 +10273,12 @@
       <c r="B18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="195"/>
-      <c r="D18" s="196"/>
-      <c r="E18" s="196"/>
-      <c r="F18" s="196"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="197"/>
+      <c r="C18" s="200"/>
+      <c r="D18" s="201"/>
+      <c r="E18" s="201"/>
+      <c r="F18" s="201"/>
+      <c r="G18" s="201"/>
+      <c r="H18" s="202"/>
       <c r="I18" s="19" t="s">
         <v>307</v>
       </c>
@@ -9141,7 +10389,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="152"/>
-      <c r="I24" s="184" t="s">
+      <c r="I24" s="189" t="s">
         <v>277</v>
       </c>
     </row>
@@ -9158,7 +10406,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="153"/>
-      <c r="I25" s="185"/>
+      <c r="I25" s="190"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="124" t="s">
@@ -9275,622 +10523,6 @@
   <mergeCells count="14">
     <mergeCell ref="I24:I25"/>
     <mergeCell ref="I9:I11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:H18"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="38.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="7.42578125" style="145" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="145" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.42578125" style="145" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="107" t="s">
-        <v>257</v>
-      </c>
-      <c r="D2" s="107" t="s">
-        <v>258</v>
-      </c>
-      <c r="E2" s="107" t="s">
-        <v>259</v>
-      </c>
-      <c r="F2" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="G2" s="107" t="s">
-        <v>261</v>
-      </c>
-      <c r="H2" s="107" t="s">
-        <v>262</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="125" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="19" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="125" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="19" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="125" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="126" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="19" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="124" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="10">
-        <v>7.3</v>
-      </c>
-      <c r="D8" s="11">
-        <v>8.9</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="125" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="186" t="s">
-        <v>282</v>
-      </c>
-      <c r="D9" s="187" t="s">
-        <v>283</v>
-      </c>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="198"/>
-      <c r="I9" s="188" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="125" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="195"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="189"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="125" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="195"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="197"/>
-      <c r="I11" s="189"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="125" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="19" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="125" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="199" t="s">
-        <v>286</v>
-      </c>
-      <c r="D13" s="200"/>
-      <c r="E13" s="200"/>
-      <c r="F13" s="200"/>
-      <c r="G13" s="200"/>
-      <c r="H13" s="201"/>
-      <c r="I13" s="19" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="190" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="192" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144" t="s">
-        <v>288</v>
-      </c>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144">
-        <v>2.5</v>
-      </c>
-      <c r="H14" s="144">
-        <v>3.2</v>
-      </c>
-      <c r="I14" s="188" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="191"/>
-      <c r="B15" s="193"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="144" t="s">
-        <v>289</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="148">
-        <v>2.5</v>
-      </c>
-      <c r="H15" s="148">
-        <v>3.2</v>
-      </c>
-      <c r="I15" s="194"/>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="124" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="10">
-        <v>7.5</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="125" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="195">
-        <v>6.5</v>
-      </c>
-      <c r="D17" s="196">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E17" s="187" t="s">
-        <v>290</v>
-      </c>
-      <c r="F17" s="196"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="108" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="125" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="195"/>
-      <c r="D18" s="196"/>
-      <c r="E18" s="196"/>
-      <c r="F18" s="196"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="19" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="126" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="19" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="124" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11">
-        <v>2.4</v>
-      </c>
-      <c r="H20" s="147">
-        <v>2.9</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="126" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="19" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="124" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="H22" s="147" t="s">
-        <v>243</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="126" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="19" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="124" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="184" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="127" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="185"/>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="124" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147" t="s">
-        <v>250</v>
-      </c>
-      <c r="H26" s="147" t="s">
-        <v>249</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="126" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="88"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="148"/>
-      <c r="I27" s="19" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="128" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34">
-        <v>4</v>
-      </c>
-      <c r="H28" s="34">
-        <v>4.2</v>
-      </c>
-      <c r="I28" s="36" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="129" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="121" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="113"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="111" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="125" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="122" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="115"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="110" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="127" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="123" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="118"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="120"/>
-      <c r="I31" s="112" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="C13:H13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="I14:I15"/>
@@ -9919,6 +10551,622 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="38.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7.42578125" style="145" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="145" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.42578125" style="145" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="107" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="107" t="s">
+        <v>258</v>
+      </c>
+      <c r="E2" s="107" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="107" t="s">
+        <v>260</v>
+      </c>
+      <c r="G2" s="107" t="s">
+        <v>261</v>
+      </c>
+      <c r="H2" s="107" t="s">
+        <v>262</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="125" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="125" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="125" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="126" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="124" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10">
+        <v>7.3</v>
+      </c>
+      <c r="D8" s="11">
+        <v>8.9</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="191" t="s">
+        <v>282</v>
+      </c>
+      <c r="D9" s="192" t="s">
+        <v>283</v>
+      </c>
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="203"/>
+      <c r="I9" s="193" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="125" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="200"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="201"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="194"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="125" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="200"/>
+      <c r="D11" s="201"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="194"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="125" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="204" t="s">
+        <v>286</v>
+      </c>
+      <c r="D13" s="205"/>
+      <c r="E13" s="205"/>
+      <c r="F13" s="205"/>
+      <c r="G13" s="205"/>
+      <c r="H13" s="206"/>
+      <c r="I13" s="19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="195" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="197" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144" t="s">
+        <v>288</v>
+      </c>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144">
+        <v>2.5</v>
+      </c>
+      <c r="H14" s="144">
+        <v>3.2</v>
+      </c>
+      <c r="I14" s="193" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="196"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="144" t="s">
+        <v>289</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="148">
+        <v>2.5</v>
+      </c>
+      <c r="H15" s="148">
+        <v>3.2</v>
+      </c>
+      <c r="I15" s="199"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="125" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="200">
+        <v>6.5</v>
+      </c>
+      <c r="D17" s="201">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E17" s="192" t="s">
+        <v>290</v>
+      </c>
+      <c r="F17" s="201"/>
+      <c r="G17" s="201"/>
+      <c r="H17" s="202"/>
+      <c r="I17" s="108" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="125" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="200"/>
+      <c r="D18" s="201"/>
+      <c r="E18" s="201"/>
+      <c r="F18" s="201"/>
+      <c r="G18" s="201"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="126" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="19" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="124" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="H20" s="147">
+        <v>2.9</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="H22" s="147" t="s">
+        <v>243</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="126" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="124" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="189" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="127" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="190"/>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="124" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="86"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147" t="s">
+        <v>250</v>
+      </c>
+      <c r="H26" s="147" t="s">
+        <v>249</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="126" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="88"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="128" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34">
+        <v>4</v>
+      </c>
+      <c r="H28" s="34">
+        <v>4.2</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="129" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="121" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="113"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="111" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="125" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="122" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="115"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="110" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="123" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="118"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="112" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:H18"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D9" sqref="D9:D11"/>
     </sheetView>
   </sheetViews>
@@ -10091,17 +11339,17 @@
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="186" t="s">
+      <c r="C9" s="191" t="s">
         <v>282</v>
       </c>
-      <c r="D9" s="187" t="s">
+      <c r="D9" s="192" t="s">
         <v>283</v>
       </c>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="198"/>
-      <c r="I9" s="188" t="s">
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="203"/>
+      <c r="I9" s="193" t="s">
         <v>285</v>
       </c>
     </row>
@@ -10112,13 +11360,13 @@
       <c r="B10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="195"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="189"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="201"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="194"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="125" t="s">
@@ -10127,13 +11375,13 @@
       <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="195"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="197"/>
-      <c r="I11" s="189"/>
+      <c r="C11" s="200"/>
+      <c r="D11" s="201"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="194"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="125" t="s">
@@ -10159,23 +11407,23 @@
       <c r="B13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="199" t="s">
+      <c r="C13" s="204" t="s">
         <v>286</v>
       </c>
-      <c r="D13" s="200"/>
-      <c r="E13" s="200"/>
-      <c r="F13" s="200"/>
-      <c r="G13" s="200"/>
-      <c r="H13" s="201"/>
+      <c r="D13" s="205"/>
+      <c r="E13" s="205"/>
+      <c r="F13" s="205"/>
+      <c r="G13" s="205"/>
+      <c r="H13" s="206"/>
       <c r="I13" s="19" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="190" t="s">
+      <c r="A14" s="195" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="197" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="16"/>
@@ -10190,13 +11438,13 @@
       <c r="H14" s="132">
         <v>3.1</v>
       </c>
-      <c r="I14" s="188" t="s">
+      <c r="I14" s="193" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="191"/>
-      <c r="B15" s="193"/>
+      <c r="A15" s="196"/>
+      <c r="B15" s="198"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
       <c r="E15" s="132" t="s">
@@ -10209,7 +11457,7 @@
       <c r="H15" s="134">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I15" s="194"/>
+      <c r="I15" s="199"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="124" t="s">
@@ -10237,18 +11485,18 @@
       <c r="B17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="195">
+      <c r="C17" s="200">
         <v>6.5</v>
       </c>
-      <c r="D17" s="196">
+      <c r="D17" s="201">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E17" s="187" t="s">
+      <c r="E17" s="192" t="s">
         <v>290</v>
       </c>
-      <c r="F17" s="196"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="197"/>
+      <c r="F17" s="201"/>
+      <c r="G17" s="201"/>
+      <c r="H17" s="202"/>
       <c r="I17" s="108" t="s">
         <v>223</v>
       </c>
@@ -10260,12 +11508,12 @@
       <c r="B18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="195"/>
-      <c r="D18" s="196"/>
-      <c r="E18" s="196"/>
-      <c r="F18" s="196"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="197"/>
+      <c r="C18" s="200"/>
+      <c r="D18" s="201"/>
+      <c r="E18" s="201"/>
+      <c r="F18" s="201"/>
+      <c r="G18" s="201"/>
+      <c r="H18" s="202"/>
       <c r="I18" s="19" t="s">
         <v>273</v>
       </c>
@@ -10376,7 +11624,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="133"/>
-      <c r="I24" s="184" t="s">
+      <c r="I24" s="189" t="s">
         <v>277</v>
       </c>
     </row>
@@ -10393,7 +11641,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="134"/>
-      <c r="I25" s="185"/>
+      <c r="I25" s="190"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="124" t="s">
@@ -10508,6 +11756,12 @@
     <row r="32" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:H18"/>
     <mergeCell ref="I24:I25"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
@@ -10517,12 +11771,6 @@
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="C13:H13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:H18"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10531,7 +11779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -10688,14 +11936,14 @@
       <c r="B8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="202" t="s">
+      <c r="C8" s="209" t="s">
         <v>286</v>
       </c>
-      <c r="D8" s="203"/>
-      <c r="E8" s="203"/>
-      <c r="F8" s="203"/>
-      <c r="G8" s="203"/>
-      <c r="H8" s="204"/>
+      <c r="D8" s="210"/>
+      <c r="E8" s="210"/>
+      <c r="F8" s="210"/>
+      <c r="G8" s="210"/>
+      <c r="H8" s="211"/>
       <c r="I8" s="13" t="s">
         <v>292</v>
       </c>
@@ -10707,17 +11955,17 @@
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="186">
+      <c r="C9" s="191">
         <v>8.5</v>
       </c>
-      <c r="D9" s="187">
+      <c r="D9" s="192">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="198"/>
-      <c r="I9" s="188" t="s">
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="203"/>
+      <c r="I9" s="193" t="s">
         <v>285</v>
       </c>
     </row>
@@ -10728,13 +11976,13 @@
       <c r="B10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="195"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="189"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="201"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="194"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="125" t="s">
@@ -10743,13 +11991,13 @@
       <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="195"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="197"/>
-      <c r="I11" s="189"/>
+      <c r="C11" s="200"/>
+      <c r="D11" s="201"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="194"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="125" t="s">
@@ -10758,14 +12006,14 @@
       <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="199" t="s">
+      <c r="C12" s="204" t="s">
         <v>286</v>
       </c>
-      <c r="D12" s="200"/>
-      <c r="E12" s="200"/>
-      <c r="F12" s="200"/>
-      <c r="G12" s="200"/>
-      <c r="H12" s="201"/>
+      <c r="D12" s="205"/>
+      <c r="E12" s="205"/>
+      <c r="F12" s="205"/>
+      <c r="G12" s="205"/>
+      <c r="H12" s="206"/>
       <c r="I12" s="19" t="s">
         <v>270</v>
       </c>
@@ -10777,23 +12025,23 @@
       <c r="B13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="199" t="s">
+      <c r="C13" s="204" t="s">
         <v>286</v>
       </c>
-      <c r="D13" s="200"/>
-      <c r="E13" s="200"/>
-      <c r="F13" s="200"/>
-      <c r="G13" s="200"/>
-      <c r="H13" s="201"/>
+      <c r="D13" s="205"/>
+      <c r="E13" s="205"/>
+      <c r="F13" s="205"/>
+      <c r="G13" s="205"/>
+      <c r="H13" s="206"/>
       <c r="I13" s="19" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="190" t="s">
+      <c r="A14" s="195" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="197" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="16"/>
@@ -10808,13 +12056,13 @@
       <c r="H14" s="137">
         <v>3.1</v>
       </c>
-      <c r="I14" s="188" t="s">
+      <c r="I14" s="193" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="191"/>
-      <c r="B15" s="193"/>
+      <c r="A15" s="196"/>
+      <c r="B15" s="198"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
       <c r="E15" s="137" t="s">
@@ -10827,7 +12075,7 @@
       <c r="H15" s="139">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I15" s="194"/>
+      <c r="I15" s="199"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="124" t="s">
@@ -10855,18 +12103,18 @@
       <c r="B17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="205">
+      <c r="C17" s="207">
         <v>6.5</v>
       </c>
-      <c r="D17" s="206">
+      <c r="D17" s="208">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E17" s="187" t="s">
+      <c r="E17" s="192" t="s">
         <v>293</v>
       </c>
-      <c r="F17" s="196"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="197"/>
+      <c r="F17" s="201"/>
+      <c r="G17" s="201"/>
+      <c r="H17" s="202"/>
       <c r="I17" s="108" t="s">
         <v>223</v>
       </c>
@@ -10878,12 +12126,12 @@
       <c r="B18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="205"/>
-      <c r="D18" s="206"/>
-      <c r="E18" s="196"/>
-      <c r="F18" s="196"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="197"/>
+      <c r="C18" s="207"/>
+      <c r="D18" s="208"/>
+      <c r="E18" s="201"/>
+      <c r="F18" s="201"/>
+      <c r="G18" s="201"/>
+      <c r="H18" s="202"/>
       <c r="I18" s="19" t="s">
         <v>273</v>
       </c>
@@ -10994,7 +12242,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="138"/>
-      <c r="I24" s="184" t="s">
+      <c r="I24" s="189" t="s">
         <v>277</v>
       </c>
     </row>
@@ -11011,7 +12259,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="139"/>
-      <c r="I25" s="185"/>
+      <c r="I25" s="190"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="124" t="s">
@@ -11126,12 +12374,6 @@
     <row r="32" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:H18"/>
     <mergeCell ref="I24:I25"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C12:H12"/>
@@ -11143,6 +12385,12 @@
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="H9:H11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:H18"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11151,7 +12399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -11325,14 +12573,14 @@
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="195">
+      <c r="C9" s="200">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D9" s="207"/>
-      <c r="E9" s="207"/>
-      <c r="F9" s="207"/>
-      <c r="G9" s="207"/>
-      <c r="H9" s="208"/>
+      <c r="D9" s="212"/>
+      <c r="E9" s="212"/>
+      <c r="F9" s="212"/>
+      <c r="G9" s="212"/>
+      <c r="H9" s="213"/>
       <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -11342,12 +12590,12 @@
       <c r="B10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="195"/>
-      <c r="D10" s="207"/>
-      <c r="E10" s="207"/>
-      <c r="F10" s="207"/>
-      <c r="G10" s="207"/>
-      <c r="H10" s="208"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="212"/>
+      <c r="E10" s="212"/>
+      <c r="F10" s="212"/>
+      <c r="G10" s="212"/>
+      <c r="H10" s="213"/>
       <c r="I10" s="19" t="s">
         <v>264</v>
       </c>
@@ -11359,12 +12607,12 @@
       <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="195"/>
-      <c r="D11" s="207"/>
-      <c r="E11" s="207"/>
-      <c r="F11" s="207"/>
-      <c r="G11" s="207"/>
-      <c r="H11" s="208"/>
+      <c r="C11" s="200"/>
+      <c r="D11" s="212"/>
+      <c r="E11" s="212"/>
+      <c r="F11" s="212"/>
+      <c r="G11" s="212"/>
+      <c r="H11" s="213"/>
       <c r="I11" s="19" t="s">
         <v>233</v>
       </c>
@@ -11404,10 +12652,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="190" t="s">
+      <c r="A14" s="195" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="197" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="16"/>
@@ -11420,13 +12668,13 @@
       <c r="H14" s="103">
         <v>3.1</v>
       </c>
-      <c r="I14" s="188" t="s">
+      <c r="I14" s="193" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="191"/>
-      <c r="B15" s="193"/>
+      <c r="A15" s="196"/>
+      <c r="B15" s="198"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -11437,7 +12685,7 @@
       <c r="H15" s="104">
         <v>2.8</v>
       </c>
-      <c r="I15" s="194"/>
+      <c r="I15" s="199"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="124" t="s">
@@ -11465,10 +12713,10 @@
       <c r="B17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="195">
+      <c r="C17" s="200">
         <v>7.2</v>
       </c>
-      <c r="D17" s="196">
+      <c r="D17" s="201">
         <v>8.6</v>
       </c>
       <c r="F17" s="17"/>
@@ -11484,8 +12732,8 @@
       <c r="B18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="195"/>
-      <c r="D18" s="196"/>
+      <c r="C18" s="200"/>
+      <c r="D18" s="201"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="I18" s="19" t="s">
@@ -11598,7 +12846,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="102"/>
-      <c r="I24" s="184" t="s">
+      <c r="I24" s="189" t="s">
         <v>277</v>
       </c>
     </row>
@@ -11615,7 +12863,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="104"/>
-      <c r="I25" s="185"/>
+      <c r="I25" s="190"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="124" t="s">
@@ -11745,7 +12993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Foglio3"/>
   <dimension ref="A1:H31"/>
@@ -11918,7 +13166,7 @@
       <c r="B11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="195">
+      <c r="C11" s="200">
         <v>8.1999999999999993</v>
       </c>
       <c r="D11" s="17"/>
@@ -11933,7 +13181,7 @@
       <c r="B12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="195"/>
+      <c r="C12" s="200"/>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
       <c r="F12" s="24"/>
@@ -11946,7 +13194,7 @@
       <c r="B13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="195"/>
+      <c r="C13" s="200"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="18"/>
@@ -12072,7 +13320,7 @@
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="209" t="s">
+      <c r="E21" s="214" t="s">
         <v>77</v>
       </c>
       <c r="F21" s="12"/>
@@ -12089,7 +13337,7 @@
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="210"/>
+      <c r="E22" s="215"/>
       <c r="F22" s="18"/>
       <c r="G22" s="19" t="s">
         <v>202</v>
@@ -12107,7 +13355,7 @@
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="209" t="s">
+      <c r="E23" s="214" t="s">
         <v>75</v>
       </c>
       <c r="F23" s="12"/>
@@ -12127,7 +13375,7 @@
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="196"/>
+      <c r="E24" s="201"/>
       <c r="F24" s="18"/>
       <c r="G24" s="19" t="s">
         <v>202</v>
@@ -12146,7 +13394,7 @@
         <v>71</v>
       </c>
       <c r="F25" s="12"/>
-      <c r="G25" s="212" t="s">
+      <c r="G25" s="217" t="s">
         <v>200</v>
       </c>
     </row>
@@ -12163,7 +13411,7 @@
         <v>86</v>
       </c>
       <c r="F26" s="29"/>
-      <c r="G26" s="194"/>
+      <c r="G26" s="199"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
@@ -12174,7 +13422,7 @@
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="211" t="s">
+      <c r="E27" s="216" t="s">
         <v>198</v>
       </c>
       <c r="F27" s="12"/>
@@ -12191,7 +13439,7 @@
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
-      <c r="E28" s="210"/>
+      <c r="E28" s="215"/>
       <c r="F28" s="18"/>
       <c r="G28" s="19" t="s">
         <v>204</v>
@@ -12252,512 +13500,4 @@
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="38.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="195">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="195"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="195"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="10">
-        <v>7.5</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="209" t="s">
-        <v>213</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="210"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="H22" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="209" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="H23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="196"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="212" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="194"/>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="211" t="s">
-        <v>198</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="210"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="E27:E28"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>